--- a/demo/加载数据库/土建/土建工程量_test.xlsx
+++ b/demo/加载数据库/土建/土建工程量_test.xlsx
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="412">
   <si>
     <t>项目</t>
   </si>
@@ -2267,6 +2267,46 @@
       </rPr>
       <t>2）</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吊装平台工程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢筋加工厂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工机械停放场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时住宅及办公室施工生活区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备存放场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变电站</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>含放坡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃渣场</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场道路</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>架空线路</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -7682,8 +7722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G184" sqref="G184"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -10033,7 +10073,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>111</v>
+        <v>402</v>
       </c>
       <c r="C135" s="44" t="s">
         <v>124</v>
@@ -10211,8 +10251,8 @@
       <c r="A147" s="25">
         <v>2</v>
       </c>
-      <c r="B147" s="26" t="s">
-        <v>239</v>
+      <c r="B147" s="124" t="s">
+        <v>405</v>
       </c>
       <c r="C147" s="26">
         <f>IF($C$2*$D$2&lt;=50,1800,IF($C$2*$D$2&gt;=100,2200,2000))</f>
@@ -10230,8 +10270,8 @@
       <c r="A148" s="25">
         <v>3</v>
       </c>
-      <c r="B148" s="26" t="s">
-        <v>240</v>
+      <c r="B148" s="124" t="s">
+        <v>403</v>
       </c>
       <c r="C148" s="26">
         <f>IF($C$2*$D$2&lt;=50,150,IF($C$2*$D$2&gt;=100,250,200))</f>
@@ -10249,8 +10289,8 @@
       <c r="A149" s="25">
         <v>4</v>
       </c>
-      <c r="B149" s="26" t="s">
-        <v>241</v>
+      <c r="B149" s="124" t="s">
+        <v>406</v>
       </c>
       <c r="C149" s="26">
         <f>IF($C$2*$D$2&lt;=50,100,IF($C$2*$D$2&gt;=100,200,150))</f>
@@ -10268,8 +10308,8 @@
       <c r="A150" s="25">
         <v>5</v>
       </c>
-      <c r="B150" s="26" t="s">
-        <v>242</v>
+      <c r="B150" s="124" t="s">
+        <v>404</v>
       </c>
       <c r="C150" s="26">
         <f>IF($C$2*$D$2&lt;=50,100,IF($C$2*$D$2&gt;=100,200,150))</f>
@@ -10540,7 +10580,7 @@
         <v>2</v>
       </c>
       <c r="B172" s="124" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="C172" s="125">
         <f>VLOOKUP($C$2,风机基础数据!$A$98:$P$105,15)</f>
@@ -10552,15 +10592,15 @@
       <c r="A173" s="25">
         <v>3</v>
       </c>
-      <c r="B173" s="26" t="s">
-        <v>254</v>
+      <c r="B173" s="124" t="s">
+        <v>407</v>
       </c>
       <c r="C173" s="125">
         <f t="array" ref="C173">VLOOKUP($H$5&amp;$I$5&amp;$J$5,IF({1,0},升压站基础数据!A$15:A$30&amp;升压站基础数据!B$15:B$30&amp;升压站基础数据!C$15:C$30,升压站基础数据!G$15:G$30),2,0)</f>
         <v>12305.512999999999</v>
       </c>
       <c r="D173" s="126" t="s">
-        <v>257</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -10643,8 +10683,8 @@
       <c r="A182" s="25">
         <v>4</v>
       </c>
-      <c r="B182" s="26" t="s">
-        <v>270</v>
+      <c r="B182" s="124" t="s">
+        <v>409</v>
       </c>
       <c r="C182" s="108">
         <f>(INT(E161/100000)+1)*10000</f>
@@ -10656,8 +10696,8 @@
       <c r="A183" s="25">
         <v>5</v>
       </c>
-      <c r="B183" s="26" t="s">
-        <v>271</v>
+      <c r="B183" s="124" t="s">
+        <v>410</v>
       </c>
       <c r="C183" s="108">
         <f>E110*(VLOOKUP($A$5,道路基础数据!$A$16:$AJ$23,36))</f>
@@ -10670,7 +10710,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="124" t="s">
-        <v>274</v>
+        <v>411</v>
       </c>
       <c r="C184" s="108">
         <f>C8</f>
